--- a/Data/2022/Day2/logsheet.xlsx
+++ b/Data/2022/Day2/logsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olanr\Downloads\MIRDriftersAndCTDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olanr\Downloads\OceanographyAnalysis\Data\2022\Day2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40F3AD0-3BFE-427C-9C53-D90D73C369CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE4A0AB-58B4-43EB-A6FB-96972971A2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6750" yWindow="0" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
-  <si>
-    <t>Station No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Type</t>
   </si>
@@ -36,51 +33,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Deployment Time</t>
-  </si>
-  <si>
-    <t>Long Deg</t>
-  </si>
-  <si>
-    <t>Long Min</t>
-  </si>
-  <si>
-    <t>Long Dir</t>
-  </si>
-  <si>
-    <t>Lat Deg</t>
-  </si>
-  <si>
-    <t>Lat Min</t>
-  </si>
-  <si>
-    <t>Lat Dir</t>
-  </si>
-  <si>
-    <t>Time of Recovery</t>
-  </si>
-  <si>
-    <t>Log Min</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>CTD 1</t>
-  </si>
-  <si>
-    <t>CTD 2</t>
-  </si>
-  <si>
-    <t>CTD 3</t>
-  </si>
-  <si>
-    <t>CTD 4</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -88,6 +40,45 @@
   </si>
   <si>
     <t>WD</t>
+  </si>
+  <si>
+    <t>CTD</t>
+  </si>
+  <si>
+    <t>StationNo</t>
+  </si>
+  <si>
+    <t>LongMinDep</t>
+  </si>
+  <si>
+    <t>LatMinDep</t>
+  </si>
+  <si>
+    <t>RecovTime</t>
+  </si>
+  <si>
+    <t>DepTime</t>
+  </si>
+  <si>
+    <t>LongDegRecov</t>
+  </si>
+  <si>
+    <t>LogMinRecov</t>
+  </si>
+  <si>
+    <t>LatDegRecov</t>
+  </si>
+  <si>
+    <t>LatMinRecov</t>
+  </si>
+  <si>
+    <t>DepDate</t>
+  </si>
+  <si>
+    <t>DepLong</t>
+  </si>
+  <si>
+    <t>DepLat</t>
   </si>
 </sst>
 </file>
@@ -125,7 +116,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -435,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,56 +434,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -501,48 +489,36 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>274</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>0.40763888888888899</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
       <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
         <v>58.363</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>43</v>
@@ -550,52 +526,40 @@
       <c r="I2">
         <v>4.6550000000000002</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="J2" s="2">
         <v>0.52777777777777801</v>
       </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
       <c r="L2">
-        <v>5</v>
+        <v>57.564</v>
       </c>
       <c r="M2">
-        <v>57.564</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2">
-        <v>43</v>
-      </c>
-      <c r="P2">
+        <v>43</v>
+      </c>
+      <c r="N2">
         <v>4.7830000000000004</v>
       </c>
-      <c r="Q2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>8436</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.40763888888888899</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
       <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>58.363</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
       <c r="H3">
         <v>43</v>
@@ -603,52 +567,40 @@
       <c r="I3">
         <v>4.6550000000000002</v>
       </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="J3" s="2">
         <v>0.52222222222222203</v>
       </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
       <c r="L3">
-        <v>5</v>
+        <v>57.185000000000002</v>
       </c>
       <c r="M3">
-        <v>57.185000000000002</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>43</v>
-      </c>
-      <c r="P3">
+        <v>43</v>
+      </c>
+      <c r="N3">
         <v>4.7080000000000002</v>
       </c>
-      <c r="Q3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>6439</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.40763888888888899</v>
       </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
       <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
         <v>58.363</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
       </c>
       <c r="H4">
         <v>43</v>
@@ -656,52 +608,40 @@
       <c r="I4">
         <v>4.6550000000000002</v>
       </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="J4" s="2">
         <v>0.52916666666666701</v>
       </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
       <c r="L4">
-        <v>5</v>
+        <v>57.570999999999998</v>
       </c>
       <c r="M4">
-        <v>57.570999999999998</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4">
-        <v>43</v>
-      </c>
-      <c r="P4">
+        <v>43</v>
+      </c>
+      <c r="N4">
         <v>4.8029999999999999</v>
       </c>
-      <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>273</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>0.41597222222222202</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
       <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
         <v>59.055</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
       </c>
       <c r="H5">
         <v>43</v>
@@ -709,52 +649,40 @@
       <c r="I5">
         <v>4.7229999999999999</v>
       </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="J5" s="2">
         <v>0.58541666666666703</v>
       </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
       <c r="L5">
-        <v>5</v>
+        <v>57.743000000000002</v>
       </c>
       <c r="M5">
-        <v>57.743000000000002</v>
-      </c>
-      <c r="N5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5">
-        <v>43</v>
-      </c>
-      <c r="P5">
+        <v>43</v>
+      </c>
+      <c r="N5">
         <v>5.1449999999999996</v>
       </c>
-      <c r="Q5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>7230</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>0.41597222222222202</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
       <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
         <v>59.055</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
       </c>
       <c r="H6">
         <v>43</v>
@@ -762,52 +690,40 @@
       <c r="I6">
         <v>4.7229999999999999</v>
       </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J6" s="2">
         <v>0.58263888888888904</v>
       </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
       <c r="L6">
-        <v>5</v>
+        <v>57.954999999999998</v>
       </c>
       <c r="M6">
-        <v>57.954999999999998</v>
-      </c>
-      <c r="N6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6">
-        <v>43</v>
-      </c>
-      <c r="P6">
+        <v>43</v>
+      </c>
+      <c r="N6">
         <v>5.1440000000000001</v>
       </c>
-      <c r="Q6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>119</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>0.41597222222222202</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
       <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
         <v>59.055</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
       </c>
       <c r="H7">
         <v>43</v>
@@ -815,52 +731,40 @@
       <c r="I7">
         <v>4.7229999999999999</v>
       </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J7" s="2">
         <v>0.59166666666666701</v>
       </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
       <c r="L7">
-        <v>5</v>
+        <v>56.777000000000001</v>
       </c>
       <c r="M7">
-        <v>56.777000000000001</v>
-      </c>
-      <c r="N7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7">
-        <v>43</v>
-      </c>
-      <c r="P7">
+        <v>43</v>
+      </c>
+      <c r="N7">
         <v>5.1849999999999996</v>
       </c>
-      <c r="Q7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>277</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>0.42777777777777798</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
       <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
         <v>59.956000000000003</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
       </c>
       <c r="H8">
         <v>43</v>
@@ -868,52 +772,40 @@
       <c r="I8">
         <v>4.8090000000000002</v>
       </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="J8" s="2">
         <v>0.57291666666666696</v>
       </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
       <c r="L8">
-        <v>5</v>
+        <v>58.863999999999997</v>
       </c>
       <c r="M8">
-        <v>58.863999999999997</v>
-      </c>
-      <c r="N8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8">
-        <v>43</v>
-      </c>
-      <c r="P8">
+        <v>43</v>
+      </c>
+      <c r="N8">
         <v>5.3090000000000002</v>
       </c>
-      <c r="Q8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>2052</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>0.42777777777777798</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
       <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
         <v>59.956000000000003</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
       </c>
       <c r="H9">
         <v>43</v>
@@ -921,52 +813,40 @@
       <c r="I9">
         <v>4.8090000000000002</v>
       </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="J9" s="2">
         <v>0.57777777777777795</v>
       </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
       <c r="L9">
-        <v>5</v>
+        <v>58.161000000000001</v>
       </c>
       <c r="M9">
-        <v>58.161000000000001</v>
-      </c>
-      <c r="N9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9">
-        <v>43</v>
-      </c>
-      <c r="P9">
+        <v>43</v>
+      </c>
+      <c r="N9">
         <v>5.3609999999999998</v>
       </c>
-      <c r="Q9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>3368</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>0.42777777777777798</v>
       </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
       <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
         <v>59.956000000000003</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
       </c>
       <c r="H10">
         <v>43</v>
@@ -974,52 +854,40 @@
       <c r="I10">
         <v>4.8090000000000002</v>
       </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="J10" s="2">
         <v>0.57152777777777797</v>
       </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
       <c r="L10">
-        <v>5</v>
+        <v>59.033999999999999</v>
       </c>
       <c r="M10">
-        <v>59.033999999999999</v>
-      </c>
-      <c r="N10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10">
-        <v>43</v>
-      </c>
-      <c r="P10">
+        <v>43</v>
+      </c>
+      <c r="N10">
         <v>5.274</v>
       </c>
-      <c r="Q10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>9666</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>0.45486111111111099</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.67800000000000005</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
       </c>
       <c r="H11">
         <v>42</v>
@@ -1027,28 +895,25 @@
       <c r="I11">
         <v>59.546999999999997</v>
       </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.45624999999999999</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>6</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.59599999999999997</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
       </c>
       <c r="H12">
         <v>42</v>
@@ -1056,31 +921,28 @@
       <c r="I12">
         <v>59.521999999999998</v>
       </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="J12" s="2">
         <v>0.47291666666666698</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.53402777777777799</v>
       </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
       <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
         <v>58.350999999999999</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
       </c>
       <c r="H13">
         <v>43</v>
@@ -1088,49 +950,40 @@
       <c r="I13">
         <v>4.6900000000000004</v>
       </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="J13" s="2">
         <v>0.53888888888888897</v>
       </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
       <c r="L13">
-        <v>5</v>
+        <v>58.356000000000002</v>
       </c>
       <c r="M13">
-        <v>58.356000000000002</v>
-      </c>
-      <c r="N13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13">
-        <v>43</v>
-      </c>
-      <c r="P13">
+        <v>43</v>
+      </c>
+      <c r="N13">
         <v>4.6479999999999997</v>
       </c>
-      <c r="Q13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.54444444444444395</v>
       </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
       <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
         <v>58.957000000000001</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
       </c>
       <c r="H14">
         <v>43</v>
@@ -1138,49 +991,40 @@
       <c r="I14">
         <v>4.6959999999999997</v>
       </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="J14" s="2">
         <v>0.54791666666666705</v>
       </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
       <c r="L14">
-        <v>5</v>
+        <v>58.92</v>
       </c>
       <c r="M14">
-        <v>58.92</v>
-      </c>
-      <c r="N14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14">
-        <v>43</v>
-      </c>
-      <c r="P14">
+        <v>43</v>
+      </c>
+      <c r="N14">
         <v>4.7169999999999996</v>
       </c>
-      <c r="Q14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.55833333333333302</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>6</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.63300000000000001</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
       </c>
       <c r="H15">
         <v>43</v>
@@ -1188,29 +1032,20 @@
       <c r="I15">
         <v>4.8630000000000004</v>
       </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="J15" s="2">
         <v>0.56111111111111101</v>
       </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
       <c r="L15">
-        <v>6</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="M15">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="N15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15">
-        <v>43</v>
-      </c>
-      <c r="P15">
+        <v>43</v>
+      </c>
+      <c r="N15">
         <v>4.851</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
